--- a/demo/src/main/resources/file/question.xlsx
+++ b/demo/src/main/resources/file/question.xlsx
@@ -4,18 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9024"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
     <sheet name="status" sheetId="2" r:id="rId2"/>
+    <sheet name="answer" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>QuestionId</t>
   </si>
@@ -38,19 +52,94 @@
     <t>Status</t>
   </si>
   <si>
+    <t>Answer</t>
+  </si>
+  <si>
     <t>Solution</t>
   </si>
   <si>
+    <t>Hard 1 Test</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
+    <t>Solution 1</t>
+  </si>
+  <si>
+    <t>Hard 2 Test</t>
+  </si>
+  <si>
+    <t>Solution 2</t>
+  </si>
+  <si>
+    <t>Hard 3 Test</t>
+  </si>
+  <si>
+    <t>Solution 3</t>
+  </si>
+  <si>
+    <t>Easy 1 Test</t>
+  </si>
+  <si>
     <t>easy</t>
+  </si>
+  <si>
+    <t>Solution 4</t>
+  </si>
+  <si>
+    <t>Easy 2 Test</t>
+  </si>
+  <si>
+    <t>Solution 5</t>
+  </si>
+  <si>
+    <t>Easy 3 Test</t>
+  </si>
+  <si>
+    <t>Solution 6</t>
+  </si>
+  <si>
+    <t>Easy 4 Test</t>
+  </si>
+  <si>
+    <t>Solution 7</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -669,9 +758,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -688,11 +786,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1233,73 +1337,265 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="28.5555555555556" style="3" customWidth="1"/>
-    <col min="2" max="2" width="36.7777777777778" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.8888888888889" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.7777777777778" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.7777777777778" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.6666666666667" style="4" customWidth="1"/>
-    <col min="7" max="7" width="16.7777777777778" style="5" customWidth="1"/>
-    <col min="8" max="8" width="15.6666666666667" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.88888888888889" style="4"/>
+    <col min="1" max="1" width="28.5555555555556" style="6" customWidth="1"/>
+    <col min="2" max="2" width="36.7777777777778" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.8888888888889" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15.7777777777778" style="7" customWidth="1"/>
+    <col min="5" max="5" width="17.7777777777778" style="7" customWidth="1"/>
+    <col min="6" max="6" width="18.6666666666667" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.7777777777778" style="8" customWidth="1"/>
+    <col min="8" max="8" width="15.6666666666667" style="9" customWidth="1"/>
+    <col min="9" max="9" width="15.6666666666667" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="8.88888888888889" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="4" customFormat="1" spans="1:9">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="72" customHeight="1" spans="1:7">
-      <c r="A2" s="8"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="9"/>
+    <row r="2" s="5" customFormat="1" ht="72" customHeight="1" spans="1:9">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="9">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:7">
-      <c r="A3" s="8"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="9"/>
+    <row r="3" s="5" customFormat="1" ht="13" customHeight="1" spans="1:9">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="9">
+        <v>3</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="9">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="9">
+        <v>3</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="9">
+        <v>2</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="9">
+        <v>4</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3:G4 G5:G8 G9:G1048576">
       <formula1>status!$A$1:$A$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+      <formula1>answer!$A$2:$A$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1320,12 +1616,72 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="2" width="8.88888888888889" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
